--- a/AAII_Financials/Yearly/ADM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ADM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>ADM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41090</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>64656000</v>
+      </c>
+      <c r="E8" s="3">
         <v>64341000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>60828000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>62346000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>67702000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>81201000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>89804000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>46729000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>89038000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>60509000</v>
+      </c>
+      <c r="E9" s="3">
         <v>60160000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>57310000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>58728000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>63682000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>76433000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>85915000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>44927000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>85370000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4147000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4181000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3518000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3618000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4020000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4768000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3889000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1802000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3668000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,39 +888,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E14" s="3">
         <v>54000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>184000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>55000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>389000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>105000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>251000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>145000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>449000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63305000</v>
+      </c>
+      <c r="E17" s="3">
         <v>62379000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>59472000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>60764000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>66081000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>78445000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>87925000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45828000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>87445000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1351000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1962000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1356000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1582000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1621000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2756000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1879000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>901000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1593000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,158 +1050,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E20" s="3">
         <v>462000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>583000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>533000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>971000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>711000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>558000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>309000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>613000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2983000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3365000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2863000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3015000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3474000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4361000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3346000</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3054000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E22" s="3">
         <v>364000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>330000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>293000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>308000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>337000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>413000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>213000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>441000</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1588000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2060000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1609000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1822000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2284000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3130000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2024000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>997000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1765000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E24" s="3">
         <v>278000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>386000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>534000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>438000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>877000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>670000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>303000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>523000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1418000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1782000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1223000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1288000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1846000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2253000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1354000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>694000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1242000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1418000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1777000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1216000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1279000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1849000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2248000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1342000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>692000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1223000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,20 +1344,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E29" s="3">
         <v>33000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>379000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-639000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-462000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-583000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-533000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-971000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-711000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-558000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-309000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-613000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1379000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1810000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1595000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1279000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1849000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2248000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1342000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>692000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1223000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1379000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1810000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1595000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1279000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1849000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2248000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1342000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>692000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1223000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41090</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,278 +1646,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>852000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1997000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>804000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>619000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>910000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1099000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3121000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1714000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1291000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
         <v>6000</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>296000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>438000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>515000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>433000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>576000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>176000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4223000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4069000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4945000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5579000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7853000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11471000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6167000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4068000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9170000</v>
+      </c>
+      <c r="E44" s="3">
         <v>8813000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9173000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8831000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8243000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18748000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>22882000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13836000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12192000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6214000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5549000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5879000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6354000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6659000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9891000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7680000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7469000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9227000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21347000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20588000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19925000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21045000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21829000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26028000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28530000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>29762000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26954000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5132000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5324000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5180000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4684000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4340000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4377000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4046000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3887000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3650000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11077000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9953000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10138000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9758000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9853000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9960000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10137000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10123000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9812000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5476000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4041000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3918000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3703000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3688000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6566000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1320000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>759000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>603000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>965000</v>
+      </c>
+      <c r="E52" s="3">
         <v>927000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>802000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>579000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>447000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>349000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>478000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>605000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>752000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43997000</v>
+      </c>
+      <c r="E54" s="3">
         <v>40833000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>39963000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39769000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40157000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43997000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43752000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>45136000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41771000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,188 +2138,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5450000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4859000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5474000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5872000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6982000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8440000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8479000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8254000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3680000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1209000</v>
+      </c>
+      <c r="E58" s="3">
         <v>690000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>870000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>427000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>98000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>132000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1523000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3084000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3785000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7075000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6227000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6226000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6874000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6425000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7030000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5656000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10275000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7161000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13734000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11776000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12570000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13173000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13505000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15602000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15658000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16993000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14626000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7672000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7698000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6623000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6504000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5779000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5528000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5347000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6456000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6535000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3308000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2314000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2395000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2887000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2958000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3237000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2553000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2556000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2441000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24789000</v>
+      </c>
+      <c r="E66" s="3">
         <v>21852000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21650000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22596000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22258000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24422000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23596000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>26216000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23802000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18958000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18527000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17552000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17444000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16865000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15701000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14077000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13236000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12774000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19208000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18981000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18313000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17173000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17899000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19575000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20156000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18920000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17969000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41090</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1379000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1810000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1595000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1279000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1849000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2248000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1342000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>692000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1223000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>993000</v>
+      </c>
+      <c r="E83" s="3">
         <v>941000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>924000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>882000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>894000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>909000</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>848000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5452000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4784000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5966000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6508000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2470000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4962000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5226000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2478000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2895000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-828000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-842000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1049000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-882000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-894000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-913000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-615000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1477000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5259000</v>
+      </c>
+      <c r="E94" s="3">
         <v>6582000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7291000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6852000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3407000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-577000</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1122000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,38 +3292,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-789000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-758000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-730000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-701000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-687000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-624000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-501000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-230000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-455000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,39 +3421,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-660000</v>
+      </c>
+      <c r="E100" s="3">
         <v>187000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1028000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-579000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2649000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3577000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3242000</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1097000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3233,43 +3481,49 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-853000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1985000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>297000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-235000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2022000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1407000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>423000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>676000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ADM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ADM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>ADM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>64355000</v>
+      </c>
+      <c r="E8" s="3">
         <v>64656000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>64341000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>60828000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>62346000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>67702000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>81201000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>89804000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46729000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>89038000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>59902000</v>
+      </c>
+      <c r="E9" s="3">
         <v>60509000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>60160000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>57310000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>58728000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>63682000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>76433000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>85915000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44927000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>85370000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4453000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4147000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4181000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3518000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3618000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4020000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4768000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3889000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1802000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3668000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,42 +907,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>489000</v>
+      </c>
+      <c r="E14" s="3">
         <v>303000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>54000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>184000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>55000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>389000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>105000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>251000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>145000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>449000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63078000</v>
+      </c>
+      <c r="E17" s="3">
         <v>63305000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62379000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>59472000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>60764000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>66081000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>78445000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>87925000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45828000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>87445000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1277000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1351000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1962000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1356000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1582000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1621000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2756000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1879000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>901000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1593000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,173 +1083,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E20" s="3">
         <v>639000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>462000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>583000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>533000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>971000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>711000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>558000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>309000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>613000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3198000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2983000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3365000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2863000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3015000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3474000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4361000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3346000</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3054000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>339000</v>
+      </c>
+      <c r="E22" s="3">
         <v>402000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>364000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>330000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>293000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>308000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>337000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>413000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>213000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>441000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1883000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1588000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2060000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1609000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1822000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2284000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3130000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2024000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>997000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1765000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E24" s="3">
         <v>170000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>278000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>386000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>534000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>438000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>877000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>670000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>303000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>523000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1781700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1418000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1782000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1223000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1288000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1846000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2253000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1354000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>694000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1242000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1771700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1418000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1777000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1216000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1279000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1849000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2248000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1342000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>692000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1223000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,23 +1404,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>300</v>
+      </c>
+      <c r="E29" s="3">
         <v>-39000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>33000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>379000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-945000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-639000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-462000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-583000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-533000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-971000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-711000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-558000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-309000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-613000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1772000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1379000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1810000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1595000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1279000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1849000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2248000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1342000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>692000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1223000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1772000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1379000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1810000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1595000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1279000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1849000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2248000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1342000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>692000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1223000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,305 +1732,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>666000</v>
+      </c>
+      <c r="E41" s="3">
         <v>852000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1997000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>804000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>619000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>910000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1099000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3121000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1714000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1291000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3">
         <v>6000</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>296000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>438000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>515000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>433000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>576000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>176000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4883000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5111000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4223000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4069000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4945000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5579000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7853000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11471000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6167000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4068000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11713000</v>
+      </c>
+      <c r="E44" s="3">
         <v>9170000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8813000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9173000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8831000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8243000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>18748000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>22882000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13836000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12192000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10024000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6214000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5549000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5879000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6354000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6659000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9891000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7680000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7469000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9227000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27286000</v>
+      </c>
+      <c r="E46" s="3">
         <v>21347000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20588000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19925000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21045000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21829000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26028000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28530000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29762000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26954000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4913000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5132000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5324000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5180000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4684000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4340000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4377000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4046000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3887000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3650000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11053000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11077000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9953000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10138000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9758000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9853000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9960000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10137000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10123000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9812000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5413000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5476000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4041000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3918000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3703000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3688000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6566000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1320000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>759000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>603000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="E52" s="3">
         <v>965000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>927000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>802000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>579000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>447000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>349000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>478000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>605000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>752000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49719000</v>
+      </c>
+      <c r="E54" s="3">
         <v>43997000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40833000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39963000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39769000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40157000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43997000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43752000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45136000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41771000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,206 +2268,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5643000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5450000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4859000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5474000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5872000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6982000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8440000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8479000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8254000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3680000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2044000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1209000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>690000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>870000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>427000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>98000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>132000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1523000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3084000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3785000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10495000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7075000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6227000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6226000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6874000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6425000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7030000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5656000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10275000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7161000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18182000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13734000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11776000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12570000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13173000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13505000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15602000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15658000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16993000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14626000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7885000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7672000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7698000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6623000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6504000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5779000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5528000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5347000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6456000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6535000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3556000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3308000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2314000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2395000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2887000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2958000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3237000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2553000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2556000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2441000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29719000</v>
+      </c>
+      <c r="E66" s="3">
         <v>24789000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21852000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21650000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22596000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22258000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24422000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23596000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26216000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23802000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19780000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18958000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18527000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17552000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17444000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16865000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15701000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14077000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13236000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12774000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19208000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18981000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18313000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17173000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17899000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19575000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20156000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18920000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17969000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1772000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1379000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1810000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1595000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1279000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1849000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2248000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1342000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>692000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1223000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>976000</v>
+      </c>
+      <c r="E83" s="3">
         <v>993000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>941000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>924000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>882000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>894000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>909000</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>848000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2386000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5452000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4784000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5966000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6508000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2470000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4962000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5226000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2478000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2895000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-823000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-828000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-842000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1049000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-882000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-894000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-913000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-615000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1477000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4465000</v>
+      </c>
+      <c r="E94" s="3">
         <v>5259000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6582000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7291000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6852000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3407000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-577000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1122000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,41 +3525,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-809000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-789000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-758000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-730000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-701000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-687000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-624000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-501000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-230000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-455000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,42 +3666,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-423000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-660000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>187000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1028000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-579000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2649000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3577000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3242000</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1097000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3484,46 +3732,52 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1656000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-853000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1985000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>297000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-235000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2022000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1407000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>423000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>676000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ADM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ADM_YR_FIN.xlsx
@@ -1234,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>101300</v>
+        <v>109000</v>
       </c>
       <c r="E24" s="3">
         <v>170000</v>
@@ -1306,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1781700</v>
+        <v>1774000</v>
       </c>
       <c r="E26" s="3">
         <v>1418000</v>
@@ -1342,7 +1342,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1771700</v>
+        <v>1764000</v>
       </c>
       <c r="E27" s="3">
         <v>1418000</v>
@@ -1414,7 +1414,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>300</v>
+        <v>8000</v>
       </c>
       <c r="E29" s="3">
         <v>-39000</v>

--- a/AAII_Financials/Yearly/ADM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ADM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ADM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41090</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>85249000</v>
+      </c>
+      <c r="E8" s="3">
         <v>64355000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>64656000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>64341000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>60828000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>62346000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>67702000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>81201000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>89804000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46729000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>89038000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>79262000</v>
+      </c>
+      <c r="E9" s="3">
         <v>59902000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>60509000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>60160000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>57310000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>58728000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>63682000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>76433000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>85915000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44927000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>85370000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5987000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4453000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4147000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4181000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3518000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3618000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4020000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4768000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3889000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1802000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3668000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,45 +926,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>283000</v>
+      </c>
+      <c r="E14" s="3">
         <v>489000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>303000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>54000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>184000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>55000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>389000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>105000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>251000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>145000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>449000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>82539000</v>
+      </c>
+      <c r="E17" s="3">
         <v>63078000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63305000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62379000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>59472000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>60764000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>66081000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>78445000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>87925000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45828000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>87445000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2710000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1277000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1351000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1962000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1356000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1582000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1621000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2756000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1879000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>901000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1593000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,188 +1116,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>868000</v>
+      </c>
+      <c r="E20" s="3">
         <v>945000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>639000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>462000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>583000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>533000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>971000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>711000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>558000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>309000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>613000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4574000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3198000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2983000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3365000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2863000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3015000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3474000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4361000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3346000</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3054000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E22" s="3">
         <v>339000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>402000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>364000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>330000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>293000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>308000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>337000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>413000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>213000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>441000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3313000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1883000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1588000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2060000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1609000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1822000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2284000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3130000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2024000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>997000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1765000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>582000</v>
+      </c>
+      <c r="E24" s="3">
         <v>109000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>170000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>278000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>386000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>534000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>438000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>877000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>670000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>303000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>523000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2731000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1774000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1418000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1782000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1223000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1288000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1846000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2253000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1354000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>694000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1242000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2705000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1764000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1418000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1777000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1216000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1279000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1849000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2248000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1342000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>692000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1223000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,26 +1464,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E29" s="3">
         <v>8000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-39000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>33000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>379000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-868000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-945000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-639000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-462000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-583000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-533000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-971000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-711000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-558000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-309000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-613000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2709000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1772000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1379000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1810000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1595000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1279000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1849000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2248000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1342000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>692000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1223000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2709000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1772000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1379000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1810000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1595000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1279000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1849000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2248000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1342000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>692000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1223000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41090</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,44 +1818,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>943000</v>
+      </c>
+      <c r="E41" s="3">
         <v>666000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>852000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1997000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>804000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>619000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>910000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1099000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3121000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1714000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1291000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1780,285 +1869,309 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3">
         <v>6000</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>296000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>438000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>515000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>433000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>576000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>176000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5692000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4883000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5111000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4223000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4069000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4945000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5579000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7853000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11471000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6167000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4068000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14481000</v>
+      </c>
+      <c r="E44" s="3">
         <v>11713000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9170000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8813000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9173000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8831000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8243000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18748000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22882000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13836000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12192000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10793000</v>
+      </c>
+      <c r="E45" s="3">
         <v>10024000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6214000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5549000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5879000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6354000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6659000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9891000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7680000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7469000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9227000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31909000</v>
+      </c>
+      <c r="E46" s="3">
         <v>27286000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21347000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20588000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19925000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21045000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21829000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26028000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28530000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29762000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26954000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5285000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4913000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5132000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5324000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5180000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4684000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4340000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4377000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4046000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3887000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3650000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10826000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11053000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11077000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9953000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10138000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9758000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9853000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9960000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10137000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10123000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9812000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6747000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5413000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5476000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4041000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3918000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3703000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3688000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6566000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1320000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>759000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>603000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1369000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1054000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>965000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>927000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>802000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>579000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>447000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>349000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>478000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>605000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>752000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>56136000</v>
+      </c>
+      <c r="E54" s="3">
         <v>49719000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43997000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40833000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39963000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39769000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40157000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43997000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43752000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45136000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41771000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2398,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7902000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5643000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5450000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4859000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5474000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5872000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6982000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8440000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8479000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8254000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3680000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1528000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2044000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1209000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>690000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>870000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>427000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>98000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>132000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1523000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3084000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3785000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12518000</v>
+      </c>
+      <c r="E59" s="3">
         <v>10495000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7075000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6227000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6226000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6874000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6425000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7030000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5656000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10275000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7161000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21948000</v>
+      </c>
+      <c r="E60" s="3">
         <v>18182000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13734000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11776000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12570000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13173000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13505000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15602000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15658000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16993000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14626000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8011000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7885000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7672000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7698000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6623000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6504000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5779000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5528000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5347000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6456000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6535000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3410000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3556000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3308000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2314000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2395000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2887000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2958000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3237000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2553000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2556000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2441000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33659000</v>
+      </c>
+      <c r="E66" s="3">
         <v>29719000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24789000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21852000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21650000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22596000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22258000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>24422000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23596000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26216000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23802000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21655000</v>
+      </c>
+      <c r="E72" s="3">
         <v>19780000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18958000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18527000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17552000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17444000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16865000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15701000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14077000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13236000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12774000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22477000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20000000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19208000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18981000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18313000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17173000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17899000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19575000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20156000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18920000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17969000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41090</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2709000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1772000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1379000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1810000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1595000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1279000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1849000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2248000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1342000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>692000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1223000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>996000</v>
+      </c>
+      <c r="E83" s="3">
         <v>976000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>993000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>941000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>924000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>882000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>894000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>909000</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>848000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6595000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2386000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5452000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4784000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5966000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6508000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2470000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4962000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5226000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2478000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2895000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1169000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-823000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-828000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-842000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1049000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-882000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-894000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-913000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-615000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1477000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2669000</v>
+      </c>
+      <c r="E94" s="3">
         <v>4465000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5259000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6582000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7291000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6852000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3407000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-577000</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1122000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,44 +3758,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-834000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-809000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-789000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-758000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-730000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-701000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-687000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-624000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-501000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-230000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-455000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,45 +3911,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1118000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-423000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-660000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>187000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1028000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-579000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2649000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3577000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3242000</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1097000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3735,49 +3983,55 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2808000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1656000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-853000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1985000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>297000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-235000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2022000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1407000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>423000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>676000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ADM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ADM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>ADM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,191 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41090</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>101556000</v>
+      </c>
+      <c r="E8" s="3">
         <v>85249000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>64355000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>64656000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>64341000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>60828000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>62346000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>67702000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>81201000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>89804000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46729000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>89038000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>93986000</v>
+      </c>
+      <c r="E9" s="3">
         <v>79262000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>59902000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>60509000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>60160000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>57310000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>58728000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>63682000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>76433000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>85915000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>44927000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>85370000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7570000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5987000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4453000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4147000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4181000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3518000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3618000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4020000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4768000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3889000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1802000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3668000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,48 +946,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>283000</v>
+        <v>66000</v>
       </c>
       <c r="E14" s="3">
+        <v>321000</v>
+      </c>
+      <c r="F14" s="3">
         <v>489000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>303000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>54000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>184000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>55000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>389000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>105000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>251000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>145000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>449000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,9 +1030,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>97410000</v>
+      </c>
+      <c r="E17" s="3">
         <v>82539000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63078000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63305000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>62379000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>59472000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>60764000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>66081000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>78445000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>87925000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>45828000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>87445000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4146000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2710000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1277000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1351000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1962000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1356000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1582000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1621000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2756000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1879000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>901000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1593000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1483000</v>
+      </c>
+      <c r="E20" s="3">
         <v>868000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>945000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>639000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>462000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>583000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>533000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>971000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>711000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>558000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>309000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>613000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6657000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4574000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3198000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2983000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3365000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2863000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3015000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3474000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4361000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3346000</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3054000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E22" s="3">
         <v>265000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>339000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>402000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>364000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>330000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>293000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>308000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>337000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>413000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>213000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>441000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5233000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3313000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1883000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1588000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2060000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1609000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1822000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2284000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3130000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2024000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>997000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1765000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>868000</v>
+      </c>
+      <c r="E24" s="3">
         <v>582000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>109000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>170000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>278000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>386000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>534000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>438000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>877000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>670000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>303000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>523000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4365000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2731000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1774000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1418000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1782000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1223000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1288000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1846000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2253000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1354000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>694000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1242000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4340000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2705000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1764000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1418000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1777000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1216000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1279000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1849000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2248000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1342000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>692000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1223000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,29 +1525,32 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>4000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>8000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-39000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>33000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>379000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1506,9 +1567,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1483000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-868000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-945000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-639000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-462000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-583000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-533000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-971000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-711000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-558000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-309000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-613000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4340000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2709000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1772000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1379000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1810000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1595000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1279000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1849000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2248000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1342000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>692000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1223000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4340000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2709000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1772000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1379000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1810000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1595000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1279000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1849000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2248000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1342000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>692000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1223000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41090</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,47 +1905,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1037000</v>
+      </c>
+      <c r="E41" s="3">
         <v>943000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>666000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>852000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1997000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>804000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>619000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>910000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1099000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3121000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1714000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1291000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1872,306 +1962,330 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3">
         <v>6000</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>296000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>438000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>515000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>433000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>576000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>176000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7501000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5692000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4883000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5111000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4223000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4069000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4945000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5579000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7853000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11471000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6167000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4068000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14771000</v>
+      </c>
+      <c r="E44" s="3">
         <v>14481000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11713000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9170000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8813000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9173000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8831000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8243000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18748000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>22882000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13836000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12192000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12101000</v>
+      </c>
+      <c r="E45" s="3">
         <v>10793000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10024000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6214000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5549000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5879000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6354000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6659000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9891000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7680000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7469000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9227000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35410000</v>
+      </c>
+      <c r="E46" s="3">
         <v>31909000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27286000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21347000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20588000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19925000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21045000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21829000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26028000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28530000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29762000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26954000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5467000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5285000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4913000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5132000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5324000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5180000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4684000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4340000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4377000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4046000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3887000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3650000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11021000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10826000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11053000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11077000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9953000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10138000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9758000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9853000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9960000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10137000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10123000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9812000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6544000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6747000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5413000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5476000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4041000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3918000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3703000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3688000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6566000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1320000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>759000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>603000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1332000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1369000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1054000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>965000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>927000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>802000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>579000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>447000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>349000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>478000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>605000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>752000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>59774000</v>
+      </c>
+      <c r="E54" s="3">
         <v>56136000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49719000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43997000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40833000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39963000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39769000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40157000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43997000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43752000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45136000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41771000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9279000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7902000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5643000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5450000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4859000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5474000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5872000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6982000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8440000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8479000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8254000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3680000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1445000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1528000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2044000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1209000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>690000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>870000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>427000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>98000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>132000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1523000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3084000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3785000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13467000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12518000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10495000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7075000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6227000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6226000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6874000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6425000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7030000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5656000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10275000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7161000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24191000</v>
+      </c>
+      <c r="E60" s="3">
         <v>21948000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18182000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13734000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11776000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12570000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13173000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13505000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15602000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15658000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16993000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14626000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7735000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8011000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7885000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7672000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7698000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6623000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6504000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5779000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5528000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5347000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6456000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6535000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3232000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3410000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3556000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3308000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2314000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2395000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2887000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2958000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3237000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2553000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2556000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2441000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35490000</v>
+      </c>
+      <c r="E66" s="3">
         <v>33659000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29719000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24789000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21852000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21650000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22596000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22258000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24422000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23596000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26216000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23802000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>23646000</v>
+      </c>
+      <c r="E72" s="3">
         <v>21655000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19780000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18958000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18527000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17552000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>17444000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16865000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15701000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14077000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13236000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12774000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24284000</v>
+      </c>
+      <c r="E76" s="3">
         <v>22477000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20000000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19208000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18981000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18313000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17173000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17899000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19575000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20156000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18920000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17969000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41090</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4340000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2709000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1772000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1379000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1810000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1595000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1279000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1849000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2248000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1342000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>692000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1223000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="E83" s="3">
         <v>996000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>976000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>993000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>941000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>924000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>882000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>894000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>909000</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>848000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3478000</v>
+      </c>
+      <c r="E89" s="3">
         <v>6595000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2386000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5452000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4784000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5966000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6508000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2470000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4962000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5226000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2478000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2895000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1319000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1169000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-823000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-828000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-842000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1049000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-882000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1125000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-894000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-913000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-615000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1477000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1400000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2669000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4465000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5259000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6582000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7291000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6852000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3407000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-577000</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1122000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,47 +3992,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-899000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-834000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-809000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-789000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-758000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-730000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-701000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-687000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-624000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-501000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-230000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-455000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,48 +4157,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2499000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1118000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-423000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-660000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>187000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1028000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-579000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2649000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3577000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3242000</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1097000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3986,52 +4235,58 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-421000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2808000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1656000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-853000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1985000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>297000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-235000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2022000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1407000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>423000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>676000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
